--- a/biology/Médecine/Sidérocyte/Sidérocyte.xlsx
+++ b/biology/Médecine/Sidérocyte/Sidérocyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sid%C3%A9rocyte</t>
+          <t>Sidérocyte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sidérocytes sont des globules rouges dans lesquels on peut voir des dépôts de ferritine mis en évidence par la réaction de Perls (réaction cytochimique au bleu de Prusse). Leur taux augmente après splénectomie, dans les anémies sidéroachrestiques et dans les anémies hémolytiques.
 </t>
